--- a/Liquid Vision Plumbing/37229/struct.xlsx
+++ b/Liquid Vision Plumbing/37229/struct.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Liquid Vision Plumbing\37229\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59855870-D1A6-411D-B782-FCE05149B25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8607E42E-5077-4CD8-A429-802B2EFEE46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="1320" windowWidth="28890" windowHeight="19455" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
+    <workbookView xWindow="11355" yWindow="2865" windowWidth="26955" windowHeight="17880" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="struct" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">struct!$A$1:$M$40</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="37">
   <si>
     <t>resource</t>
   </si>
@@ -59,13 +62,85 @@
   </si>
   <si>
     <t>Tier 9</t>
+  </si>
+  <si>
+    <t>TMV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yarra Tower </t>
+  </si>
+  <si>
+    <t>Ground Floor</t>
+  </si>
+  <si>
+    <t>DDA</t>
+  </si>
+  <si>
+    <t>TMV Checklist</t>
+  </si>
+  <si>
+    <t>Male EOT 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male EOT 2 </t>
+  </si>
+  <si>
+    <t>Female EOT 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDA </t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Male WC</t>
+  </si>
+  <si>
+    <t>Female   WC</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 29 </t>
+  </si>
+  <si>
+    <t>Ambulant</t>
+  </si>
+  <si>
+    <t>Cleaners Room</t>
+  </si>
+  <si>
+    <t>Claremont Tower</t>
+  </si>
+  <si>
+    <t>Basement 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office /  Co-working </t>
+  </si>
+  <si>
+    <t>Co-Work / Lounge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 16 </t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>checklist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +275,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +483,42 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -542,8 +682,32 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="31"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -919,54 +1083,698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E815DE-B877-4AFA-B9B2-ED8E95723021}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="6"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="17"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="4"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:M40" xr:uid="{15E815DE-B877-4AFA-B9B2-ED8E95723021}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>